--- a/results/DT/75Hz_3classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/75Hz_3classes_normalized/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 33, 'max_features': 0.38263886368877725, 'min_samples_leaf': 0.0016773175204443042, 'min_samples_split': 0.024489017550212835}</t>
+          <t>{'max_depth': 21, 'max_features': 0.3843238441658982, 'min_samples_leaf': 0.0015049351772830392, 'min_samples_split': 0.030311226433198647}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.038, 'mean_10_25': 0.143, 'max_10_25': 0.062, 'kurt_10_25': 0.006, 'percScore_10_25': 0.05, 'entropy_10_25': 0.028, 'score_at_perc_10_25': 0.016, 'coef_kstatvar_10_25': 0.021, 'min_10_25': 0.113, 'std_class_10_25': 0.1, 'var_10_25': 0.028, 'mean_10_50': 0.012, 'max_10_50': 0.017, 'mad_10_50': 0.003, 'entropy_10_50': 0.005, 'score_at_perc_10_50': 0.085, 'coef_kstatvar_10_50': 0.01, 'min_10_50': 0.05, 'std_class_10_50': 0.011, 'mean_25_75': 0.029, 'kurt_25_75': 0.03, 'skew_25_75': 0.012, 'percScore_25_75': 0.024, 'entropy_25_75': 0.025, 'score_at_perc_25_75': 0.002, 'coef_var_25_75': 0.056, 'coef_kstatvar_25_75': 0.009, 'min_25_75': 0.017}</t>
+          <t>{'mean_10_25': 0.175, 'max_10_25': 0.05, 'percScore_10_25': 0.021, 'entropy_10_25': 0.029, 'score_at_perc_10_25': 0.016, 'coef_var_10_25': 0.046, 'coef_kstatvar_10_25': 0.035, 'min_10_25': 0.12, 'std_class_10_25': 0.022, 'mean_10_50': 0.013, 'max_10_50': 0.017, 'mad_10_50': 0.003, 'score_at_perc_10_50': 0.087, 'coef_var_10_50': 0.026, 'coef_kstatvar_10_50': 0.029, 'min_10_50': 0.101, 'std_class_10_50': 0.006, 'mean_25_75': 0.018, 'kurt_25_75': 0.035, 'skew_25_75': 0.012, 'percScore_25_75': 0.012, 'entropy_25_75': 0.026, 'score_at_perc_25_75': 0.002, 'coef_var_25_75': 0.058, 'coef_kstatvar_25_75': 0.009, 'min_25_75': 0.018, 'std_class_25_75': 0.014}</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 29, 'max_features': 0.5981449342676094, 'min_samples_leaf': 0.010195298147376622, 'min_samples_split': 0.004495009472754101}</t>
+          <t>{'max_depth': 32, 'max_features': 0.3172861667901061, 'min_samples_leaf': 0.0017611305005795432, 'min_samples_split': 0.001197062497712684}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.081, 'mean_10_25': 0.089, 'max_10_25': 0.062, 'kurt_10_25': 0.012, 'skew_10_25': 0.021, 'entropy_10_25': 0.021, 'coef_var_10_25': 0.021, 'min_10_25': 0.112, 'var_10_25': 0.059, 'mean_10_50': 0.063, 'max_10_50': 0.004, 'kurt_10_50': 0.055, 'score_at_perc_10_50': 0.009, 'coef_var_10_50': 0.018, 'std_class_10_50': 0.022, 'var_10_50': 0.027, 'mean_25_75': 0.027, 'max_25_75': 0.003, 'kurt_25_75': 0.026, 'percScore_25_75': 0.019, 'entropy_25_75': 0.012, 'score_at_perc_25_75': 0.021, 'coef_var_25_75': 0.015, 'coef_kstatvar_25_75': 0.025, 'min_25_75': 0.158, 'std_class_25_75': 0.021}</t>
+          <t>{'var_25_75': 0.017, 'mean_10_25': 0.067, 'max_10_25': 0.066, 'kurt_10_25': 0.008, 'skew_10_25': 0.022, 'percScore_10_25': 0.009, 'entropy_10_25': 0.023, 'score_at_perc_10_25': 0.019, 'coef_var_10_25': 0.036, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.018, 'std_class_10_25': 0.069, 'var_10_25': 0.122, 'mean_10_50': 0.012, 'max_10_50': 0.056, 'kurt_10_50': 0.025, 'skew_10_50': 0.017, 'percScore_10_50': 0.005, 'score_at_perc_10_50': 0.011, 'coef_var_10_50': 0.015, 'coef_kstatvar_10_50': 0.034, 'min_10_50': 0.011, 'std_class_10_50': 0.009, 'var_10_50': 0.018, 'mean_25_75': 0.009, 'max_25_75': 0.006, 'kurt_25_75': 0.012, 'skew_25_75': 0.019, 'percScore_25_75': 0.049, 'entropy_25_75': 0.009, 'score_at_perc_25_75': 0.012, 'coef_var_25_75': 0.009, 'min_25_75': 0.165, 'std_class_25_75': 0.014}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 25, 'max_features': 0.08629474066487541, 'min_samples_leaf': 0.0013516068432115264, 'min_samples_split': 0.0014981836152132087}</t>
+          <t>{'max_depth': 45, 'max_features': 0.18748852045218048, 'min_samples_leaf': 0.001823647034651852, 'min_samples_split': 0.0329086034366497}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.037, 'mean_10_25': 0.018, 'max_10_25': 0.045, 'kurt_10_25': 0.013, 'skew_10_25': 0.021, 'percScore_10_25': 0.029, 'entropy_10_25': 0.036, 'score_at_perc_10_25': 0.021, 'coef_var_10_25': 0.049, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.02, 'std_class_10_25': 0.008, 'var_10_25': 0.058, 'mean_10_50': 0.046, 'max_10_50': 0.053, 'kurt_10_50': 0.046, 'percScore_10_50': 0.017, 'coef_var_10_50': 0.005, 'coef_kstatvar_10_50': 0.026, 'min_10_50': 0.032, 'std_class_10_50': 0.031, 'var_10_50': 0.028, 'mean_25_75': 0.009, 'max_25_75': 0.01, 'kurt_25_75': 0.04, 'skew_25_75': 0.041, 'entropy_25_75': 0.009, 'score_at_perc_25_75': 0.104, 'coef_var_25_75': 0.038, 'coef_kstatvar_25_75': 0.035, 'min_25_75': 0.051, 'std_class_25_75': 0.016}</t>
+          <t>{'var_25_75': 0.052, 'mean_10_25': 0.012, 'percScore_10_25': 0.027, 'score_at_perc_10_25': 0.025, 'coef_var_10_25': 0.021, 'coef_kstatvar_10_25': 0.042, 'min_10_25': 0.001, 'std_class_10_25': 0.076, 'var_10_25': 0.011, 'mean_10_50': 0.025, 'max_10_50': 0.013, 'kurt_10_50': 0.035, 'skew_10_50': 0.042, 'percScore_10_50': 0.024, 'entropy_10_50': 0.022, 'score_at_perc_10_50': 0.004, 'coef_var_10_50': 0.022, 'coef_kstatvar_10_50': 0.017, 'min_10_50': 0.047, 'std_class_10_50': 0.02, 'var_10_50': 0.013, 'mean_25_75': 0.008, 'max_25_75': 0.012, 'skew_25_75': 0.061, 'percScore_25_75': 0.01, 'coef_var_25_75': 0.094, 'coef_kstatvar_25_75': 0.015, 'min_25_75': 0.193, 'std_class_25_75': 0.057}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 63, 'max_features': 0.4427053372966316, 'min_samples_leaf': 0.002727799721143484, 'min_samples_split': 0.009803396597539957}</t>
+          <t>{'max_depth': 89, 'max_features': 0.06764751707640149, 'min_samples_leaf': 0.0012247544596157081, 'min_samples_split': 0.011187144361411133}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.042, 'mean_10_25': 0.04, 'max_10_25': 0.034, 'kurt_10_25': 0.035, 'skew_10_25': 0.02, 'score_at_perc_10_25': 0.02, 'coef_kstatvar_10_25': 0.027, 'min_10_25': 0.061, 'std_class_10_25': 0.047, 'var_10_25': 0.102, 'mean_10_50': 0.029, 'kurt_10_50': 0.105, 'skew_10_50': 0.07, 'percScore_10_50': 0.052, 'entropy_10_50': 0.005, 'coef_var_10_50': 0.02, 'coef_kstatvar_10_50': 0.015, 'min_10_50': 0.024, 'std_class_10_50': 0.042, 'var_10_50': 0.009, 'mean_25_75': 0.025, 'max_25_75': 0.01, 'kurt_25_75': 0.012, 'skew_25_75': 0.059, 'entropy_25_75': 0.025, 'score_at_perc_25_75': 0.021, 'coef_var_25_75': 0.015, 'coef_kstatvar_25_75': 0.012, 'min_25_75': 0.004, 'std_class_25_75': 0.016}</t>
+          <t>{'var_25_75': 0.025, 'mean_10_25': 0.039, 'max_10_25': 0.029, 'kurt_10_25': 0.063, 'skew_10_25': 0.008, 'mad_10_25': 0.008, 'percScore_10_25': 0.009, 'entropy_10_25': 0.016, 'score_at_perc_10_25': 0.022, 'coef_var_10_25': 0.045, 'coef_kstatvar_10_25': 0.036, 'min_10_25': 0.026, 'std_class_10_25': 0.057, 'var_10_25': 0.042, 'mean_10_50': 0.049, 'kurt_10_50': 0.012, 'skew_10_50': 0.025, 'entropy_10_50': 0.023, 'score_at_perc_10_50': 0.091, 'coef_var_10_50': 0.009, 'coef_kstatvar_10_50': 0.009, 'min_10_50': 0.045, 'std_class_10_50': 0.043, 'var_10_50': 0.019, 'mean_25_75': 0.011, 'max_25_75': 0.009, 'kurt_25_75': 0.01, 'entropy_25_75': 0.024, 'score_at_perc_25_75': 0.076, 'coef_var_25_75': 0.053, 'coef_kstatvar_25_75': 0.021, 'min_25_75': 0.031, 'std_class_25_75': 0.015}</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 18, 'max_features': 0.29848632078205906, 'min_samples_leaf': 0.001224147409419432, 'min_samples_split': 0.001196236751467055}</t>
+          <t>{'max_depth': 18, 'max_features': 0.2872080968631077, 'min_samples_leaf': 0.0014058531348874743, 'min_samples_split': 0.0012605615209838727}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 85, 'max_features': 0.42515316602512687, 'min_samples_leaf': 0.0011755941603303621, 'min_samples_split': 0.012336812408887605}</t>
+          <t>{'max_depth': 56, 'max_features': 0.41192823110031773, 'min_samples_leaf': 0.00117829258194361, 'min_samples_split': 0.013478273347928608}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 4, 'max_features': 0.5721847361558529, 'min_samples_leaf': 0.07626360851731703, 'min_samples_split': 0.11264540145296414}</t>
+          <t>{'max_depth': 50, 'max_features': 0.4460851577650376, 'min_samples_leaf': 0.0017953825450177513, 'min_samples_split': 0.1717966273229293}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.243, 'skew_10_25': 0.064, 'std_class_10_25': 0.112, 'score_at_perc_10_50': 0.152, 'std_class_10_50': 0.048, 'var_10_50': 0.194, 'std_class_25_75': 0.189}</t>
+          <t>{'mean_10_25': 0.206, 'score_at_perc_10_25': 0.052, 'min_10_25': 0.056, 'var_10_25': 0.067, 'mean_10_50': 0.047, 'score_at_perc_10_50': 0.078, 'min_10_50': 0.041, 'std_class_10_50': 0.093, 'var_10_50': 0.21, 'std_class_25_75': 0.151}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="D9" t="n">
         <v>0.58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 96, 'max_features': 0.41493560236391946, 'min_samples_leaf': 0.0012755153876513846, 'min_samples_split': 0.03503750379497176}</t>
+          <t>{'max_depth': 82, 'max_features': 0.3660754636481198, 'min_samples_leaf': 0.009133643666537683, 'min_samples_split': 0.12045603115221402}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.03, 'mean_10_25': 0.091, 'max_10_25': 0.058, 'skew_10_25': 0.005, 'percScore_10_25': 0.064, 'coef_var_10_25': 0.02, 'coef_kstatvar_10_25': 0.055, 'std_class_10_25': 0.053, 'var_10_25': 0.014, 'mean_10_50': 0.027, 'max_10_50': 0.043, 'kurt_10_50': 0.073, 'skew_10_50': 0.004, 'percScore_10_50': 0.037, 'entropy_10_50': 0.019, 'score_at_perc_10_50': 0.011, 'coef_var_10_50': 0.005, 'coef_kstatvar_10_50': 0.005, 'min_10_50': 0.023, 'var_10_50': 0.019, 'mean_25_75': 0.021, 'max_25_75': 0.025, 'kurt_25_75': 0.058, 'skew_25_75': 0.023, 'percScore_25_75': 0.028, 'score_at_perc_25_75': 0.062, 'coef_var_25_75': 0.015, 'coef_kstatvar_25_75': 0.023, 'min_25_75': 0.081, 'std_class_25_75': 0.01}</t>
+          <t>{'mean_10_25': 0.143, 'kurt_10_25': 0.048, 'percScore_10_25': 0.053, 'coef_var_10_25': 0.055, 'min_10_25': 0.116, 'std_class_10_25': 0.038, 'mean_10_50': 0.043, 'kurt_10_50': 0.117, 'max_25_75': 0.097, 'kurt_25_75': 0.116, 'percScore_25_75': 0.035, 'coef_var_25_75': 0.141}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 68, 'max_features': 0.8517617545312406, 'min_samples_leaf': 0.002303653817436878, 'min_samples_split': 0.0013154904241190306}</t>
+          <t>{'max_depth': 89, 'max_features': 0.142258021443774, 'min_samples_leaf': 0.0010346091041823092, 'min_samples_split': 0.01577123394205944}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.003, 'mean_10_25': 0.075, 'max_10_25': 0.016, 'kurt_10_25': 0.025, 'skew_10_25': 0.019, 'percScore_10_25': 0.063, 'entropy_10_25': 0.029, 'score_at_perc_10_25': 0.016, 'coef_var_10_25': 0.034, 'coef_kstatvar_10_25': 0.016, 'min_10_25': 0.078, 'std_class_10_25': 0.015, 'mean_10_50': 0.033, 'kurt_10_50': 0.056, 'skew_10_50': 0.024, 'percScore_10_50': 0.01, 'entropy_10_50': 0.019, 'score_at_perc_10_50': 0.025, 'coef_var_10_50': 0.019, 'coef_kstatvar_10_50': 0.029, 'min_10_50': 0.031, 'var_10_50': 0.071, 'mean_25_75': 0.047, 'max_25_75': 0.069, 'kurt_25_75': 0.016, 'skew_25_75': 0.023, 'percScore_25_75': 0.035, 'entropy_25_75': 0.028, 'coef_var_25_75': 0.057, 'coef_kstatvar_25_75': 0.006, 'std_class_25_75': 0.01}</t>
+          <t>{'var_25_75': 0.066, 'mean_10_25': 0.06, 'max_10_25': 0.029, 'kurt_10_25': 0.066, 'skew_10_25': 0.007, 'percScore_10_25': 0.032, 'score_at_perc_10_25': 0.024, 'min_10_25': 0.034, 'std_class_10_25': 0.087, 'var_10_25': 0.045, 'mean_10_50': 0.057, 'max_10_50': 0.034, 'kurt_10_50': 0.067, 'skew_10_50': 0.019, 'entropy_10_50': 0.02, 'score_at_perc_10_50': 0.019, 'coef_var_10_50': 0.024, 'min_10_50': 0.061, 'var_10_50': 0.013, 'max_25_75': 0.05, 'kurt_25_75': 0.011, 'skew_25_75': 0.013, 'percScore_25_75': 0.033, 'coef_var_25_75': 0.011, 'coef_kstatvar_25_75': 0.008, 'min_25_75': 0.082, 'std_class_25_75': 0.03}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 57, 'max_features': 0.7693393639392287, 'min_samples_leaf': 0.001464764788418752, 'min_samples_split': 0.01942656290538522}</t>
+          <t>{'max_depth': 85, 'max_features': 0.7873241772478099, 'min_samples_leaf': 0.0011182033821866026, 'min_samples_split': 0.018621733043346075}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 52, 'max_features': 0.5183662743126235, 'min_samples_leaf': 0.0010753155812061972, 'min_samples_split': 0.01684135018689832}</t>
+          <t>{'max_depth': 74, 'max_features': 0.5356015708518441, 'min_samples_leaf': 0.0014523413633972947, 'min_samples_split': 0.016489884696251504}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="D13" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.39021872648008726, 'min_samples_leaf': 0.01147692538577578, 'min_samples_split': 0.02595587485973029}</t>
+          <t>{'max_depth': 48, 'max_features': 0.6934939357900671, 'min_samples_leaf': 0.0010126269099935276, 'min_samples_split': 0.03179014244349211}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.046, 'mean_10_25': 0.121, 'max_10_25': 0.029, 'kurt_10_25': 0.012, 'percScore_10_25': 0.034, 'score_at_perc_10_25': 0.034, 'coef_var_10_25': 0.108, 'coef_kstatvar_10_25': 0.012, 'min_10_25': 0.014, 'std_class_10_25': 0.024, 'mean_10_50': 0.034, 'max_10_50': 0.016, 'kurt_10_50': 0.015, 'skew_10_50': 0.014, 'percScore_10_50': 0.017, 'score_at_perc_10_50': 0.106, 'coef_var_10_50': 0.05, 'coef_kstatvar_10_50': 0.002, 'min_10_50': 0.015, 'std_class_10_50': 0.023, 'mean_25_75': 0.04, 'max_25_75': 0.068, 'kurt_25_75': 0.017, 'score_at_perc_25_75': 0.024, 'coef_var_25_75': 0.015, 'coef_kstatvar_25_75': 0.002, 'std_class_25_75': 0.108}</t>
+          <t>{'mean_10_25': 0.191, 'max_10_25': 0.011, 'skew_10_25': 0.005, 'percScore_10_25': 0.018, 'entropy_10_25': 0.02, 'coef_var_10_25': 0.059, 'min_10_25': 0.008, 'std_class_10_25': 0.05, 'var_10_25': 0.053, 'mean_10_50': 0.032, 'max_10_50': 0.024, 'kurt_10_50': 0.013, 'skew_10_50': 0.028, 'entropy_10_50': 0.001, 'score_at_perc_10_50': 0.021, 'coef_var_10_50': 0.076, 'min_10_50': 0.035, 'var_10_50': 0.017, 'mean_25_75': 0.017, 'max_25_75': 0.057, 'kurt_25_75': 0.002, 'skew_25_75': 0.009, 'percScore_25_75': 0.021, 'entropy_25_75': 0.004, 'coef_var_25_75': 0.095, 'coef_kstatvar_25_75': 0.009, 'std_class_25_75': 0.124}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 15, 'max_features': 0.8217523703430865, 'min_samples_leaf': 0.0012644357060774352, 'min_samples_split': 0.0016996701068381012}</t>
+          <t>{'max_depth': 46, 'max_features': 0.8413549021293267, 'min_samples_leaf': 0.0016914373998501995, 'min_samples_split': 0.0015957385375443417}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D15" t="n">
         <v>0.52</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 33, 'max_features': 0.5550820870389113, 'min_samples_leaf': 0.0011038318530762134, 'min_samples_split': 0.0012836368004315243}</t>
+          <t>{'max_depth': 98, 'max_features': 0.7514662510984201, 'min_samples_leaf': 0.0017662196117612383, 'min_samples_split': 0.020019187895568887}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.004, 'mean_10_25': 0.066, 'max_10_25': 0.043, 'kurt_10_25': 0.019, 'skew_10_25': 0.034, 'mad_10_25': 0.006, 'entropy_10_25': 0.011, 'score_at_perc_10_25': 0.038, 'coef_var_10_25': 0.035, 'coef_kstatvar_10_25': 0.025, 'min_10_25': 0.057, 'std_class_10_25': 0.067, 'var_10_25': 0.012, 'mean_10_50': 0.009, 'max_10_50': 0.078, 'kurt_10_50': 0.026, 'skew_10_50': 0.026, 'percScore_10_50': 0.03, 'entropy_10_50': 0.02, 'score_at_perc_10_50': 0.011, 'coef_var_10_50': 0.027, 'coef_kstatvar_10_50': 0.013, 'min_10_50': 0.024, 'std_class_10_50': 0.009, 'var_10_50': 0.007, 'mean_25_75': 0.029, 'max_25_75': 0.02, 'kurt_25_75': 0.048, 'skew_25_75': 0.005, 'percScore_25_75': 0.029, 'score_at_perc_25_75': 0.011, 'coef_var_25_75': 0.048, 'min_25_75': 0.012, 'std_class_25_75': 0.098}</t>
+          <t>{'var_25_75': 0.074, 'mean_10_25': 0.083, 'max_10_25': 0.008, 'kurt_10_25': 0.017, 'skew_10_25': 0.017, 'percScore_10_25': 0.02, 'coef_var_10_25': 0.01, 'min_10_25': 0.075, 'std_class_10_25': 0.035, 'var_10_25': 0.015, 'max_10_50': 0.011, 'kurt_10_50': 0.064, 'percScore_10_50': 0.024, 'coef_var_10_50': 0.035, 'coef_kstatvar_10_50': 0.027, 'min_10_50': 0.072, 'std_class_10_50': 0.026, 'var_10_50': 0.101, 'mean_25_75': 0.053, 'max_25_75': 0.042, 'kurt_25_75': 0.027, 'skew_25_75': 0.008, 'entropy_25_75': 0.016, 'score_at_perc_25_75': 0.015, 'coef_var_25_75': 0.058, 'coef_kstatvar_25_75': 0.006, 'min_25_75': 0.025, 'std_class_25_75': 0.037}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D16" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 88, 'max_features': 0.4529688413068375, 'min_samples_leaf': 0.0015349753289707986, 'min_samples_split': 0.01803349234534784}</t>
+          <t>{'max_depth': 75, 'max_features': 0.11207288813567867, 'min_samples_leaf': 0.0013709344054599784, 'min_samples_split': 0.009726437386249035}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.004, 'mean_10_25': 0.099, 'max_10_25': 0.021, 'skew_10_25': 0.016, 'percScore_10_25': 0.022, 'entropy_10_25': 0.032, 'score_at_perc_10_25': 0.028, 'coef_var_10_25': 0.066, 'coef_kstatvar_10_25': 0.019, 'min_10_25': 0.022, 'std_class_10_25': 0.024, 'mean_10_50': 0.037, 'max_10_50': 0.08, 'kurt_10_50': 0.047, 'skew_10_50': 0.021, 'percScore_10_50': 0.03, 'entropy_10_50': 0.01, 'score_at_perc_10_50': 0.034, 'coef_var_10_50': 0.065, 'coef_kstatvar_10_50': 0.008, 'min_10_50': 0.017, 'std_class_10_50': 0.019, 'var_10_50': 0.017, 'mean_25_75': 0.046, 'percScore_25_75': 0.021, 'entropy_25_75': 0.009, 'coef_var_25_75': 0.068, 'min_25_75': 0.009, 'std_class_25_75': 0.109}</t>
+          <t>{'var_25_75': 0.024, 'mean_10_25': 0.099, 'max_10_25': 0.031, 'skew_10_25': 0.012, 'percScore_10_25': 0.016, 'entropy_10_25': 0.003, 'score_at_perc_10_25': 0.084, 'coef_var_10_25': 0.023, 'coef_kstatvar_10_25': 0.045, 'min_10_25': 0.062, 'std_class_10_25': 0.006, 'var_10_25': 0.013, 'mean_10_50': 0.006, 'max_10_50': 0.028, 'kurt_10_50': 0.047, 'skew_10_50': 0.04, 'percScore_10_50': 0.039, 'entropy_10_50': 0.011, 'score_at_perc_10_50': 0.025, 'coef_kstatvar_10_50': 0.031, 'min_10_50': 0.052, 'std_class_10_50': 0.031, 'var_10_50': 0.012, 'mean_25_75': 0.007, 'max_25_75': 0.001, 'kurt_25_75': 0.006, 'skew_25_75': 0.023, 'entropy_25_75': 0.019, 'score_at_perc_25_75': 0.026, 'coef_var_25_75': 0.009, 'coef_kstatvar_25_75': 0.033, 'min_25_75': 0.088, 'std_class_25_75': 0.048}</t>
         </is>
       </c>
     </row>
